--- a/biology/Zoologie/Bucliona_dubia/Bucliona_dubia.xlsx
+++ b/biology/Zoologie/Bucliona_dubia/Bucliona_dubia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bucliona dubia est une espèce d'araignées aranéomorphes de la famille des Clubionidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bucliona dubia est une espèce d'araignées aranéomorphes de la famille des Clubionidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'île de Sainte-Hélène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,25 à 7,75 mm et les femelles de 6,50 à 9,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,25 à 7,75 mm et les femelles de 6,50 à 9,50 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Clubiona dubia par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Bucliona par Benoit en 1977[3], elle est replacée dans le genre Clubiona par Mikhailov en 1997[2] puis dans le genre Bucliona par Zhang, Marusik, Oketch, Kioko, Yu et Li en 2021[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Clubiona dubia par O. Pickard-Cambridge en 1870. Elle est placée dans le genre Bucliona par Benoit en 1977, elle est replacée dans le genre Clubiona par Mikhailov en 1997 puis dans le genre Bucliona par Zhang, Marusik, Oketch, Kioko, Yu et Li en 2021.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>O. Pickard-Cambridge, 1870 : « Notes on some spiders and scorpions from St Helena, with descriptions of new species. » Proceedings of the Zoological Society of London, vol. 1869, p. 531-544 (texte intégral).</t>
         </is>
